--- a/ログイン_結合テスト.xlsx
+++ b/ログイン_結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{811F8E86-5F63-4AD2-B01A-E0528009DDDB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB48E211-E74D-483F-915A-1DFC8D78F22A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="127">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3133,8 +3133,12 @@
       <c r="F8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3178,8 +3182,12 @@
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3223,8 +3231,12 @@
       <c r="F14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3268,8 +3280,12 @@
       <c r="F17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3313,8 +3329,12 @@
       <c r="F20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3362,8 +3382,12 @@
       <c r="F23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3413,8 +3437,12 @@
       <c r="F26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3499,8 +3527,12 @@
       <c r="F32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3546,8 +3578,12 @@
       <c r="F35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3632,8 +3668,12 @@
       <c r="F41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="4">
+        <v>45834</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/ログイン_結合テスト.xlsx
+++ b/ログイン_結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB48E211-E74D-483F-915A-1DFC8D78F22A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56EE4418-9D2D-44EF-919D-93D2762D5186}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="146">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1788,6 +1788,229 @@
     <rPh sb="25" eb="27">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.regist.phpを入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.list.phpを入力</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.delete.phpを入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.update.phpを入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.操作不可の画面に遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「一般」権限でログイン</t>
+    <rPh sb="3" eb="5">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「トップへ戻る」でTOPページに遷移するか</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アクセスする権限がありません」が表示</t>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「トップへ戻る」がボタン形式で表示</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アクセスする権限がありません」が表示され、操作不可となっている</t>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント登録」が操作不可となっているか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント一覧」が操作不可となっているか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント削除」が操作不可となっているか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント更新」が操作不可となっているか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグの「無効」なアカウントでログインできないようになっているか</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.削除フラグ「無効」のアカウント情報を入力</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ログインボタンを押す</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレスまたはパスワードが正しくありません」が赤字で表示され、</t>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインできない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1972,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2019,6 +2242,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2658,7 +2887,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A38:I46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A38:I58" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="30" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="28" dataDxfId="27"/>
@@ -3025,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3740,6 +3969,236 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="16">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45840</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="16"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="16">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45840</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="16"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="16">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="4">
+        <v>45840</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="16"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="16">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="4">
+        <v>45840</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="16"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="16">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="4">
+        <v>45840</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="17"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="17">
+        <v>16</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="4">
+        <v>45840</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="17"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
